--- a/tests/advanced/randomized_tests/b05.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b05.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>7.871538400650024E-05</v>
+        <v>0.0001352312974631786</v>
       </c>
       <c r="E2">
-        <v>0.01540652988478541</v>
+        <v>0.03035148791968822</v>
       </c>
       <c r="F2">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>0.001211809925734997</v>
+        <v>0.002112641464918852</v>
       </c>
       <c r="H2">
-        <v>0.002283427864313126</v>
+        <v>0.004344364628195763</v>
       </c>
       <c r="I2">
-        <v>0.003956134431064129</v>
+        <v>0.008957847021520138</v>
       </c>
       <c r="J2">
-        <v>0.006297985557466745</v>
+        <v>0.01196514163166285</v>
       </c>
       <c r="K2">
-        <v>0.0005185692571103573</v>
+        <v>0.0008195945993065834</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>0.001364154741168022</v>
+        <v>0.00185466418042779</v>
       </c>
       <c r="E3">
-        <v>0.02047869237139821</v>
+        <v>0.03206227114424109</v>
       </c>
       <c r="F3">
         <v>32</v>
       </c>
       <c r="G3">
-        <v>0.001374932006001472</v>
+        <v>0.002093623857945204</v>
       </c>
       <c r="H3">
-        <v>0.003945471253246069</v>
+        <v>0.005747798830270767</v>
       </c>
       <c r="I3">
-        <v>0.005222887732088566</v>
+        <v>0.008508458267897367</v>
       </c>
       <c r="J3">
-        <v>0.00807166937738657</v>
+        <v>0.01302590081468225</v>
       </c>
       <c r="K3">
-        <v>0.0005538966506719589</v>
+        <v>0.0007318048737943172</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>0.001734278164803982</v>
+        <v>0.001227468717843294</v>
       </c>
       <c r="E4">
-        <v>0.02632898790761828</v>
+        <v>0.02108264388516545</v>
       </c>
       <c r="F4">
         <v>32</v>
       </c>
       <c r="G4">
-        <v>0.001791896764189005</v>
+        <v>0.001259608194231987</v>
       </c>
       <c r="H4">
-        <v>0.004870973993092775</v>
+        <v>0.003818481229245663</v>
       </c>
       <c r="I4">
-        <v>0.006416657008230686</v>
+        <v>0.005760840140283108</v>
       </c>
       <c r="J4">
-        <v>0.01089086709544063</v>
+        <v>0.008561976719647646</v>
       </c>
       <c r="K4">
-        <v>0.0007051695138216019</v>
+        <v>0.0005278461612761021</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>0.0001120157539844513</v>
+        <v>0.0001407810486853123</v>
       </c>
       <c r="E5">
-        <v>0.01584693882614374</v>
+        <v>0.01870762603357434</v>
       </c>
       <c r="F5">
         <v>32</v>
       </c>
       <c r="G5">
-        <v>0.001261430326849222</v>
+        <v>0.001327746547758579</v>
       </c>
       <c r="H5">
-        <v>0.002324015833437443</v>
+        <v>0.0025911470875144</v>
       </c>
       <c r="I5">
-        <v>0.004426672123372555</v>
+        <v>0.005706444848328829</v>
       </c>
       <c r="J5">
-        <v>0.006118538789451122</v>
+        <v>0.007380329538136721</v>
       </c>
       <c r="K5">
-        <v>0.0005617765709757805</v>
+        <v>0.0005363314412534237</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>67</v>
       </c>
       <c r="D6">
-        <v>0.001596064772456884</v>
+        <v>0.002037713769823313</v>
       </c>
       <c r="E6">
-        <v>0.04717904981225729</v>
+        <v>0.07072611898183823</v>
       </c>
       <c r="F6">
         <v>67</v>
       </c>
       <c r="G6">
-        <v>0.002779734786599874</v>
+        <v>0.002854987047612667</v>
       </c>
       <c r="H6">
-        <v>0.006660968996584415</v>
+        <v>0.008526691701263189</v>
       </c>
       <c r="I6">
-        <v>0.02271440206095576</v>
+        <v>0.0453035244718194</v>
       </c>
       <c r="J6">
-        <v>0.01131187891587615</v>
+        <v>0.01018311083316803</v>
       </c>
       <c r="K6">
-        <v>0.001041268464177847</v>
+        <v>0.001093864440917969</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>32</v>
       </c>
       <c r="D8">
-        <v>7.871538400650024E-05</v>
+        <v>0.0001352312974631786</v>
       </c>
       <c r="E8">
-        <v>0.01540652988478541</v>
+        <v>0.03035148791968822</v>
       </c>
       <c r="F8">
         <v>32</v>
       </c>
       <c r="G8">
-        <v>0.001211809925734997</v>
+        <v>0.002112641464918852</v>
       </c>
       <c r="H8">
-        <v>0.002283427864313126</v>
+        <v>0.004344364628195763</v>
       </c>
       <c r="I8">
-        <v>0.003956134431064129</v>
+        <v>0.008957847021520138</v>
       </c>
       <c r="J8">
-        <v>0.006297985557466745</v>
+        <v>0.01196514163166285</v>
       </c>
       <c r="K8">
-        <v>0.0005185692571103573</v>
+        <v>0.0008195945993065834</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>32</v>
       </c>
       <c r="D9">
-        <v>0.001364154741168022</v>
+        <v>0.00185466418042779</v>
       </c>
       <c r="E9">
-        <v>0.02047869237139821</v>
+        <v>0.03206227114424109</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9">
-        <v>0.001374932006001472</v>
+        <v>0.002093623857945204</v>
       </c>
       <c r="H9">
-        <v>0.003945471253246069</v>
+        <v>0.005747798830270767</v>
       </c>
       <c r="I9">
-        <v>0.005222887732088566</v>
+        <v>0.008508458267897367</v>
       </c>
       <c r="J9">
-        <v>0.00807166937738657</v>
+        <v>0.01302590081468225</v>
       </c>
       <c r="K9">
-        <v>0.0005538966506719589</v>
+        <v>0.0007318048737943172</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>32</v>
       </c>
       <c r="D10">
-        <v>0.001734278164803982</v>
+        <v>0.001227468717843294</v>
       </c>
       <c r="E10">
-        <v>0.02632898790761828</v>
+        <v>0.02108264388516545</v>
       </c>
       <c r="F10">
         <v>32</v>
       </c>
       <c r="G10">
-        <v>0.001791896764189005</v>
+        <v>0.001259608194231987</v>
       </c>
       <c r="H10">
-        <v>0.004870973993092775</v>
+        <v>0.003818481229245663</v>
       </c>
       <c r="I10">
-        <v>0.006416657008230686</v>
+        <v>0.005760840140283108</v>
       </c>
       <c r="J10">
-        <v>0.01089086709544063</v>
+        <v>0.008561976719647646</v>
       </c>
       <c r="K10">
-        <v>0.0007051695138216019</v>
+        <v>0.0005278461612761021</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>0.0001120157539844513</v>
+        <v>0.0001407810486853123</v>
       </c>
       <c r="E11">
-        <v>0.01584693882614374</v>
+        <v>0.01870762603357434</v>
       </c>
       <c r="F11">
         <v>32</v>
       </c>
       <c r="G11">
-        <v>0.001261430326849222</v>
+        <v>0.001327746547758579</v>
       </c>
       <c r="H11">
-        <v>0.002324015833437443</v>
+        <v>0.0025911470875144</v>
       </c>
       <c r="I11">
-        <v>0.004426672123372555</v>
+        <v>0.005706444848328829</v>
       </c>
       <c r="J11">
-        <v>0.006118538789451122</v>
+        <v>0.007380329538136721</v>
       </c>
       <c r="K11">
-        <v>0.0005617765709757805</v>
+        <v>0.0005363314412534237</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>67</v>
       </c>
       <c r="D12">
-        <v>0.001596064772456884</v>
+        <v>0.002037713769823313</v>
       </c>
       <c r="E12">
-        <v>0.04717904981225729</v>
+        <v>0.07072611898183823</v>
       </c>
       <c r="F12">
         <v>67</v>
       </c>
       <c r="G12">
-        <v>0.002779734786599874</v>
+        <v>0.002854987047612667</v>
       </c>
       <c r="H12">
-        <v>0.006660968996584415</v>
+        <v>0.008526691701263189</v>
       </c>
       <c r="I12">
-        <v>0.02271440206095576</v>
+        <v>0.0453035244718194</v>
       </c>
       <c r="J12">
-        <v>0.01131187891587615</v>
+        <v>0.01018311083316803</v>
       </c>
       <c r="K12">
-        <v>0.001041268464177847</v>
+        <v>0.001093864440917969</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b05.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b05.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>67</v>
       </c>
       <c r="D2">
-        <v>67</v>
-      </c>
-      <c r="E2">
-        <v>67</v>
-      </c>
-      <c r="F2">
-        <v>67</v>
-      </c>
-      <c r="G2">
-        <v>67</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>0.0001352312974631786</v>
+        <v>0.003224941436201334</v>
       </c>
       <c r="E2">
-        <v>0.03035148791968822</v>
+        <v>0.03785148216411471</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>0.002112641464918852</v>
+        <v>0.003303975332528353</v>
       </c>
       <c r="H2">
-        <v>0.004344364628195763</v>
+        <v>0.008791411761194468</v>
       </c>
       <c r="I2">
-        <v>0.008957847021520138</v>
+        <v>0.01281481888145208</v>
       </c>
       <c r="J2">
-        <v>0.01196514163166285</v>
+        <v>0.007925017271190882</v>
       </c>
       <c r="K2">
-        <v>0.0008195945993065834</v>
+        <v>0.002128907945007086</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>0.00185466418042779</v>
+        <v>650</v>
       </c>
       <c r="E3">
-        <v>0.03206227114424109</v>
-      </c>
-      <c r="F3">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>0.002093623857945204</v>
-      </c>
-      <c r="H3">
-        <v>0.005747798830270767</v>
-      </c>
-      <c r="I3">
-        <v>0.008508458267897367</v>
-      </c>
-      <c r="J3">
-        <v>0.01302590081468225</v>
-      </c>
-      <c r="K3">
-        <v>0.0007318048737943172</v>
+        <v>0.01006944850087166</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>0.001227468717843294</v>
+        <v>0.003224941436201334</v>
       </c>
       <c r="E4">
-        <v>0.02108264388516545</v>
+        <v>0.03785148216411471</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>0.001259608194231987</v>
+        <v>0.003303975332528353</v>
       </c>
       <c r="H4">
-        <v>0.003818481229245663</v>
+        <v>0.008791411761194468</v>
       </c>
       <c r="I4">
-        <v>0.005760840140283108</v>
+        <v>0.01281481888145208</v>
       </c>
       <c r="J4">
-        <v>0.008561976719647646</v>
+        <v>0.007925017271190882</v>
       </c>
       <c r="K4">
-        <v>0.0005278461612761021</v>
+        <v>0.002128907945007086</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>0.0001407810486853123</v>
+        <v>650</v>
       </c>
       <c r="E5">
-        <v>0.01870762603357434</v>
-      </c>
-      <c r="F5">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>0.001327746547758579</v>
-      </c>
-      <c r="H5">
-        <v>0.0025911470875144</v>
-      </c>
-      <c r="I5">
-        <v>0.005706444848328829</v>
-      </c>
-      <c r="J5">
-        <v>0.007380329538136721</v>
-      </c>
-      <c r="K5">
-        <v>0.0005363314412534237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>67</v>
-      </c>
-      <c r="D6">
-        <v>0.002037713769823313</v>
-      </c>
-      <c r="E6">
-        <v>0.07072611898183823</v>
-      </c>
-      <c r="F6">
-        <v>67</v>
-      </c>
-      <c r="G6">
-        <v>0.002854987047612667</v>
-      </c>
-      <c r="H6">
-        <v>0.008526691701263189</v>
-      </c>
-      <c r="I6">
-        <v>0.0453035244718194</v>
-      </c>
-      <c r="J6">
-        <v>0.01018311083316803</v>
-      </c>
-      <c r="K6">
-        <v>0.001093864440917969</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>650</v>
-      </c>
-      <c r="E7">
-        <v>0.01006944850087166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>0.0001352312974631786</v>
-      </c>
-      <c r="E8">
-        <v>0.03035148791968822</v>
-      </c>
-      <c r="F8">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>0.002112641464918852</v>
-      </c>
-      <c r="H8">
-        <v>0.004344364628195763</v>
-      </c>
-      <c r="I8">
-        <v>0.008957847021520138</v>
-      </c>
-      <c r="J8">
-        <v>0.01196514163166285</v>
-      </c>
-      <c r="K8">
-        <v>0.0008195945993065834</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>0.00185466418042779</v>
-      </c>
-      <c r="E9">
-        <v>0.03206227114424109</v>
-      </c>
-      <c r="F9">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>0.002093623857945204</v>
-      </c>
-      <c r="H9">
-        <v>0.005747798830270767</v>
-      </c>
-      <c r="I9">
-        <v>0.008508458267897367</v>
-      </c>
-      <c r="J9">
-        <v>0.01302590081468225</v>
-      </c>
-      <c r="K9">
-        <v>0.0007318048737943172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>0.001227468717843294</v>
-      </c>
-      <c r="E10">
-        <v>0.02108264388516545</v>
-      </c>
-      <c r="F10">
-        <v>32</v>
-      </c>
-      <c r="G10">
-        <v>0.001259608194231987</v>
-      </c>
-      <c r="H10">
-        <v>0.003818481229245663</v>
-      </c>
-      <c r="I10">
-        <v>0.005760840140283108</v>
-      </c>
-      <c r="J10">
-        <v>0.008561976719647646</v>
-      </c>
-      <c r="K10">
-        <v>0.0005278461612761021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>0.0001407810486853123</v>
-      </c>
-      <c r="E11">
-        <v>0.01870762603357434</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-      <c r="G11">
-        <v>0.001327746547758579</v>
-      </c>
-      <c r="H11">
-        <v>0.0025911470875144</v>
-      </c>
-      <c r="I11">
-        <v>0.005706444848328829</v>
-      </c>
-      <c r="J11">
-        <v>0.007380329538136721</v>
-      </c>
-      <c r="K11">
-        <v>0.0005363314412534237</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>67</v>
-      </c>
-      <c r="D12">
-        <v>0.002037713769823313</v>
-      </c>
-      <c r="E12">
-        <v>0.07072611898183823</v>
-      </c>
-      <c r="F12">
-        <v>67</v>
-      </c>
-      <c r="G12">
-        <v>0.002854987047612667</v>
-      </c>
-      <c r="H12">
-        <v>0.008526691701263189</v>
-      </c>
-      <c r="I12">
-        <v>0.0453035244718194</v>
-      </c>
-      <c r="J12">
-        <v>0.01018311083316803</v>
-      </c>
-      <c r="K12">
-        <v>0.001093864440917969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>650</v>
-      </c>
-      <c r="E13">
         <v>0.01006944850087166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b05.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b05.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>67</v>
       </c>
       <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>67</v>
+      </c>
+      <c r="J2">
+        <v>67</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>0.003224941436201334</v>
+        <v>0.0002688993699848652</v>
       </c>
       <c r="E2">
-        <v>0.03785148216411471</v>
+        <v>0.02444934425875545</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>0.003303975332528353</v>
+        <v>0.002425613813102245</v>
       </c>
       <c r="H2">
-        <v>0.008791411761194468</v>
+        <v>0.004010437056422234</v>
       </c>
       <c r="I2">
-        <v>0.01281481888145208</v>
+        <v>0.006294575985521078</v>
       </c>
       <c r="J2">
-        <v>0.007925017271190882</v>
+        <v>0.008274281397461891</v>
       </c>
       <c r="K2">
-        <v>0.002128907945007086</v>
+        <v>0.001429277937859297</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>650</v>
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>0.003673115745186806</v>
       </c>
       <c r="E3">
-        <v>0.01006944850087166</v>
+        <v>0.04425873793661594</v>
+      </c>
+      <c r="F3">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>0.00384218618273735</v>
+      </c>
+      <c r="H3">
+        <v>0.01032580388709903</v>
+      </c>
+      <c r="I3">
+        <v>0.01507210591807961</v>
+      </c>
+      <c r="J3">
+        <v>0.009382894262671471</v>
+      </c>
+      <c r="K3">
+        <v>0.002289393916726112</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>0.003224941436201334</v>
+        <v>0.002229215111583471</v>
       </c>
       <c r="E4">
-        <v>0.03785148216411471</v>
+        <v>0.02904289402067661</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>0.003303975332528353</v>
+        <v>0.002555130515247583</v>
       </c>
       <c r="H4">
-        <v>0.008791411761194468</v>
+        <v>0.006087111309170723</v>
       </c>
       <c r="I4">
-        <v>0.01281481888145208</v>
+        <v>0.006644757464528084</v>
       </c>
       <c r="J4">
-        <v>0.007925017271190882</v>
+        <v>0.01030402909964323</v>
       </c>
       <c r="K4">
-        <v>0.002128907945007086</v>
+        <v>0.001450659707188606</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>0.0001236307434737682</v>
+      </c>
+      <c r="E5">
+        <v>0.01749640004709363</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>0.001730178017169237</v>
+      </c>
+      <c r="H5">
+        <v>0.003009741194546223</v>
+      </c>
+      <c r="I5">
+        <v>0.004718929994851351</v>
+      </c>
+      <c r="J5">
+        <v>0.005799626000225544</v>
+      </c>
+      <c r="K5">
+        <v>0.0009509269148111343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>0.0004820828326046467</v>
+      </c>
+      <c r="E6">
+        <v>0.04833110002800822</v>
+      </c>
+      <c r="F6">
+        <v>67</v>
+      </c>
+      <c r="G6">
+        <v>0.003618807066231966</v>
+      </c>
+      <c r="H6">
+        <v>0.006576457060873508</v>
+      </c>
+      <c r="I6">
+        <v>0.02770578861236572</v>
+      </c>
+      <c r="J6">
+        <v>0.005070039536803961</v>
+      </c>
+      <c r="K6">
+        <v>0.002262092661112547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>273</v>
+      </c>
+      <c r="D7">
+        <v>0.007550371810793877</v>
+      </c>
+      <c r="E7">
+        <v>0.1913981148973107</v>
+      </c>
+      <c r="F7">
+        <v>273</v>
+      </c>
+      <c r="G7">
+        <v>0.01249699480831623</v>
+      </c>
+      <c r="H7">
+        <v>0.02874420350417495</v>
+      </c>
+      <c r="I7">
+        <v>0.1124470625072718</v>
+      </c>
+      <c r="J7">
+        <v>0.01810100954025984</v>
+      </c>
+      <c r="K7">
+        <v>0.008161087986081839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>67</v>
+      </c>
+      <c r="D8">
+        <v>0.003516341559588909</v>
+      </c>
+      <c r="E8">
+        <v>0.06604492012411356</v>
+      </c>
+      <c r="F8">
+        <v>67</v>
+      </c>
+      <c r="G8">
+        <v>0.0042950171045959</v>
+      </c>
+      <c r="H8">
+        <v>0.01090110931545496</v>
+      </c>
+      <c r="I8">
+        <v>0.03082661889493465</v>
+      </c>
+      <c r="J8">
+        <v>0.01360212778672576</v>
+      </c>
+      <c r="K8">
+        <v>0.002505871932953596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>67</v>
+      </c>
+      <c r="D9">
+        <v>0.0005510197952389717</v>
+      </c>
+      <c r="E9">
+        <v>0.04498632624745369</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9">
+        <v>0.003354593180119991</v>
+      </c>
+      <c r="H9">
+        <v>0.006242915987968445</v>
+      </c>
+      <c r="I9">
+        <v>0.02540890406817198</v>
+      </c>
+      <c r="J9">
+        <v>0.005201463587582111</v>
+      </c>
+      <c r="K9">
+        <v>0.001967636868357658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>650</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.01006944850087166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>0.0002688993699848652</v>
+      </c>
+      <c r="E11">
+        <v>0.02444934425875545</v>
+      </c>
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>0.002425613813102245</v>
+      </c>
+      <c r="H11">
+        <v>0.004010437056422234</v>
+      </c>
+      <c r="I11">
+        <v>0.006294575985521078</v>
+      </c>
+      <c r="J11">
+        <v>0.008274281397461891</v>
+      </c>
+      <c r="K11">
+        <v>0.001429277937859297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>0.003673115745186806</v>
+      </c>
+      <c r="E12">
+        <v>0.04425873793661594</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>0.00384218618273735</v>
+      </c>
+      <c r="H12">
+        <v>0.01032580388709903</v>
+      </c>
+      <c r="I12">
+        <v>0.01507210591807961</v>
+      </c>
+      <c r="J12">
+        <v>0.009382894262671471</v>
+      </c>
+      <c r="K12">
+        <v>0.002289393916726112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>0.002229215111583471</v>
+      </c>
+      <c r="E13">
+        <v>0.02904289402067661</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>0.002555130515247583</v>
+      </c>
+      <c r="H13">
+        <v>0.006087111309170723</v>
+      </c>
+      <c r="I13">
+        <v>0.006644757464528084</v>
+      </c>
+      <c r="J13">
+        <v>0.01030402909964323</v>
+      </c>
+      <c r="K13">
+        <v>0.001450659707188606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>0.0001236307434737682</v>
+      </c>
+      <c r="E14">
+        <v>0.01749640004709363</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>0.001730178017169237</v>
+      </c>
+      <c r="H14">
+        <v>0.003009741194546223</v>
+      </c>
+      <c r="I14">
+        <v>0.004718929994851351</v>
+      </c>
+      <c r="J14">
+        <v>0.005799626000225544</v>
+      </c>
+      <c r="K14">
+        <v>0.0009509269148111343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>67</v>
+      </c>
+      <c r="D15">
+        <v>0.0004820828326046467</v>
+      </c>
+      <c r="E15">
+        <v>0.04833110002800822</v>
+      </c>
+      <c r="F15">
+        <v>67</v>
+      </c>
+      <c r="G15">
+        <v>0.003618807066231966</v>
+      </c>
+      <c r="H15">
+        <v>0.006576457060873508</v>
+      </c>
+      <c r="I15">
+        <v>0.02770578861236572</v>
+      </c>
+      <c r="J15">
+        <v>0.005070039536803961</v>
+      </c>
+      <c r="K15">
+        <v>0.002262092661112547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>273</v>
+      </c>
+      <c r="D16">
+        <v>0.007550371810793877</v>
+      </c>
+      <c r="E16">
+        <v>0.1913981148973107</v>
+      </c>
+      <c r="F16">
+        <v>273</v>
+      </c>
+      <c r="G16">
+        <v>0.01249699480831623</v>
+      </c>
+      <c r="H16">
+        <v>0.02874420350417495</v>
+      </c>
+      <c r="I16">
+        <v>0.1124470625072718</v>
+      </c>
+      <c r="J16">
+        <v>0.01810100954025984</v>
+      </c>
+      <c r="K16">
+        <v>0.008161087986081839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>0.003516341559588909</v>
+      </c>
+      <c r="E17">
+        <v>0.06604492012411356</v>
+      </c>
+      <c r="F17">
+        <v>67</v>
+      </c>
+      <c r="G17">
+        <v>0.0042950171045959</v>
+      </c>
+      <c r="H17">
+        <v>0.01090110931545496</v>
+      </c>
+      <c r="I17">
+        <v>0.03082661889493465</v>
+      </c>
+      <c r="J17">
+        <v>0.01360212778672576</v>
+      </c>
+      <c r="K17">
+        <v>0.002505871932953596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>67</v>
+      </c>
+      <c r="D18">
+        <v>0.0005510197952389717</v>
+      </c>
+      <c r="E18">
+        <v>0.04498632624745369</v>
+      </c>
+      <c r="F18">
+        <v>67</v>
+      </c>
+      <c r="G18">
+        <v>0.003354593180119991</v>
+      </c>
+      <c r="H18">
+        <v>0.006242915987968445</v>
+      </c>
+      <c r="I18">
+        <v>0.02540890406817198</v>
+      </c>
+      <c r="J18">
+        <v>0.005201463587582111</v>
+      </c>
+      <c r="K18">
+        <v>0.001967636868357658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>650</v>
+      </c>
+      <c r="E19">
         <v>0.01006944850087166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
